--- a/RUDN/Importance/Varible_f_class_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Eastern Africa.xlsx
@@ -1678,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1637.009799523828</v>
+        <v>1637.009799523793</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1188.828720683779</v>
+        <v>1188.828720683767</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>868.1554658958718</v>
+        <v>868.1554658958705</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>849.4201119350975</v>
+        <v>849.4201119350877</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>846.5959091936257</v>
+        <v>846.5959091936104</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>649.5207422617711</v>
+        <v>649.5207422617571</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>615.5819469525491</v>
+        <v>615.5819469525431</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>577.2374175156973</v>
+        <v>577.2374175156688</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>572.0914406571651</v>
+        <v>572.0914406571634</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>551.6804235243224</v>
+        <v>551.6804235243842</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>537.6795753117123</v>
+        <v>537.6795753117193</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>531.3370816832963</v>
+        <v>531.337081683277</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>512.5479570699465</v>
+        <v>512.5479570699451</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>496.2447277760081</v>
+        <v>496.244727776031</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>455.2866995663874</v>
+        <v>455.2866995663217</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>450.799256689498</v>
+        <v>450.7992566894884</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>396.7729089243467</v>
+        <v>396.7729089243456</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>385.3581003834773</v>
+        <v>385.3581003834741</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>333.1615186395288</v>
+        <v>333.1615186395154</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>330.7672405828304</v>
+        <v>330.7672405828287</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>288.2968923482191</v>
+        <v>288.296892348222</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>281.6746355715657</v>
+        <v>281.674635571571</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>177.1159881403552</v>
+        <v>177.1159881403565</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>176.5188888619376</v>
+        <v>176.5188888619396</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>173.8927289084787</v>
+        <v>173.892728908478</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>153.8041328234243</v>
+        <v>153.804132823425</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>140.4265602190796</v>
+        <v>140.4265602190785</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>130.0407115984909</v>
+        <v>130.0407115984912</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>104.4940166276091</v>
+        <v>104.4940166276046</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>101.6488768801465</v>
+        <v>101.648876880146</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>95.50213142956468</v>
+        <v>95.50213142956569</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>91.35952195914953</v>
+        <v>91.35952195914948</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>90.33248534866843</v>
+        <v>90.33248534866811</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>71.6290814588487</v>
+        <v>71.62908145885531</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>52.92689374163937</v>
+        <v>52.92689374163938</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>52.92689374163937</v>
+        <v>52.92689374163938</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>51.25468139033418</v>
+        <v>51.25468139033423</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>50.51331514049208</v>
+        <v>50.51331514049215</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>50.20736677172188</v>
+        <v>50.20736677172184</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>49.93964142124678</v>
+        <v>49.93964142124674</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>48.41017195810644</v>
+        <v>48.41017195810645</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>48.26766717295866</v>
+        <v>48.26766717295864</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>47.40194484114064</v>
+        <v>47.40194484114351</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>47.15323358319829</v>
+        <v>47.15323358319831</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>46.51257966431601</v>
+        <v>46.51257966431604</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>45.65754047826317</v>
+        <v>45.65754047826322</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>42.0016588347759</v>
+        <v>42.0016588347765</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>36.8646418076232</v>
+        <v>36.86464180762322</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>35.74363032218477</v>
+        <v>35.74363032218486</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>34.56732766908016</v>
+        <v>34.56732766908018</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>34.34634829823607</v>
+        <v>34.34634829823605</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>32.09314488358172</v>
+        <v>32.09314488365477</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>32.09314488339966</v>
+        <v>32.09314488347271</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>27.68413743616108</v>
+        <v>27.6841374361611</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>26.02436494427892</v>
+        <v>26.02436494427889</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>25.57442762076213</v>
+        <v>25.57442762076216</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>24.9053209838342</v>
+        <v>24.90532098383421</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>23.56356173159072</v>
+        <v>23.56356173159071</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>23.18681471784671</v>
+        <v>23.1868147178467</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>22.78211108811606</v>
+        <v>22.78211108811605</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>22.73741908239616</v>
+        <v>22.73741908239615</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>22.70669422507558</v>
+        <v>22.70669422507557</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>22.53409285378548</v>
+        <v>22.53409285378549</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>22.48825970539354</v>
+        <v>22.48825970539353</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>19.56827370551997</v>
+        <v>19.56827370551996</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>18.67611886080652</v>
+        <v>18.67611886080651</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>18.26371083291697</v>
+        <v>18.26371083291701</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>18.26371083291697</v>
+        <v>18.26371083291701</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>18.25859445958361</v>
+        <v>18.25859445958363</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>18.25561770759108</v>
+        <v>18.25561770759105</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>18.23768605945604</v>
+        <v>18.23768605945607</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>18.22261179692507</v>
+        <v>18.22261179692505</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>18.18573706003032</v>
+        <v>18.18573706003031</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>17.87433510509102</v>
+        <v>17.87433510509099</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>17.83993352480034</v>
+        <v>17.83993352480033</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>17.81508926788615</v>
+        <v>17.81508926788612</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>17.81309390265068</v>
+        <v>17.81309390265065</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>17.80858126733914</v>
+        <v>17.80858126733918</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>17.80845885778177</v>
+        <v>17.80845885778181</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>17.77915324360275</v>
+        <v>17.77915324360278</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>17.74858366659455</v>
+        <v>17.74858366659452</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>17.01952566191943</v>
+        <v>17.0195256619194</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>16.40215070533805</v>
+        <v>16.40215070533806</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>15.34062583315243</v>
+        <v>15.34062583315244</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>14.81256126070105</v>
+        <v>14.81256126070104</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>14.65774701244342</v>
+        <v>14.65774701244343</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>14.49905210823144</v>
+        <v>14.49905210823145</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>11.77522708164291</v>
+        <v>11.7752270816429</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>11.1829494911869</v>
+        <v>11.18294949118689</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>10.07788303395012</v>
+        <v>10.07788303395011</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>9.922339763842183</v>
+        <v>9.922339763842196</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>9.851652333093432</v>
+        <v>9.851652333093417</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>9.635568728845012</v>
+        <v>9.635568728845023</v>
       </c>
       <c r="C246">
         <v>1e-05</v>
@@ -4329,7 +4329,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>9.554156605444224</v>
+        <v>9.554156605444211</v>
       </c>
       <c r="C251">
         <v>1e-05</v>
@@ -4395,7 +4395,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>9.497726459507309</v>
+        <v>9.497726459507319</v>
       </c>
       <c r="C257">
         <v>1e-05</v>
@@ -4461,7 +4461,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>9.385913412593936</v>
+        <v>9.385913412593947</v>
       </c>
       <c r="C263">
         <v>1e-05</v>
@@ -4483,7 +4483,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>9.35065302900022</v>
+        <v>9.350653029000229</v>
       </c>
       <c r="C265">
         <v>1e-05</v>
@@ -4538,7 +4538,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>9.306064154592477</v>
+        <v>9.306064154592463</v>
       </c>
       <c r="C270">
         <v>1e-05</v>
@@ -4549,7 +4549,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>9.304028620223054</v>
+        <v>9.304028620223038</v>
       </c>
       <c r="C271">
         <v>1e-05</v>
@@ -4637,7 +4637,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>9.253002432896324</v>
+        <v>9.253002432896315</v>
       </c>
       <c r="C279">
         <v>1e-05</v>
@@ -4769,7 +4769,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>9.170820203229235</v>
+        <v>9.170820203229232</v>
       </c>
       <c r="C291">
         <v>1e-05</v>
@@ -4879,7 +4879,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>9.107877253114737</v>
+        <v>9.107877253114721</v>
       </c>
       <c r="C301">
         <v>1e-05</v>
@@ -4890,7 +4890,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>9.104913696270955</v>
+        <v>9.104913696270945</v>
       </c>
       <c r="C302">
         <v>1e-05</v>
@@ -4901,7 +4901,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>9.08835436634822</v>
+        <v>9.088354366348225</v>
       </c>
       <c r="C303">
         <v>1e-05</v>
@@ -4912,7 +4912,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>9.074500622670476</v>
+        <v>9.074500622670485</v>
       </c>
       <c r="C304">
         <v>1e-05</v>
@@ -5022,7 +5022,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>9.008592008074293</v>
+        <v>9.008592008074286</v>
       </c>
       <c r="C314">
         <v>1e-05</v>
@@ -5066,7 +5066,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>8.98167409260288</v>
+        <v>8.981674092602868</v>
       </c>
       <c r="C318">
         <v>1e-05</v>
@@ -5077,7 +5077,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>8.971015683654935</v>
+        <v>8.971015683654949</v>
       </c>
       <c r="C319">
         <v>1e-05</v>
@@ -5110,7 +5110,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>8.954626801968308</v>
+        <v>8.954626801968301</v>
       </c>
       <c r="C322">
         <v>1e-05</v>
@@ -5121,7 +5121,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>8.944733386030796</v>
+        <v>8.944733386030794</v>
       </c>
       <c r="C323">
         <v>1e-05</v>
@@ -5220,7 +5220,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>8.819220763888918</v>
+        <v>8.819220763888911</v>
       </c>
       <c r="C332">
         <v>2e-05</v>
@@ -5231,7 +5231,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>8.733924758020899</v>
+        <v>8.733924758020898</v>
       </c>
       <c r="C333">
         <v>2e-05</v>
@@ -5319,7 +5319,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>8.40764883918421</v>
+        <v>8.407648839184208</v>
       </c>
       <c r="C341">
         <v>3e-05</v>
@@ -5341,7 +5341,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>8.249221591074427</v>
+        <v>8.24922159107442</v>
       </c>
       <c r="C343">
         <v>3e-05</v>
@@ -5352,7 +5352,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>8.212205292770621</v>
+        <v>8.212205292770609</v>
       </c>
       <c r="C344">
         <v>3e-05</v>
@@ -5385,7 +5385,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>8.052328612720261</v>
+        <v>8.052328612720235</v>
       </c>
       <c r="C347">
         <v>4e-05</v>
@@ -5396,7 +5396,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>7.964157248573211</v>
+        <v>7.964157248573218</v>
       </c>
       <c r="C348">
         <v>5e-05</v>
@@ -5418,7 +5418,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>7.941084293948109</v>
+        <v>7.941084293948118</v>
       </c>
       <c r="C350">
         <v>5e-05</v>
@@ -5528,7 +5528,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>7.652101314303844</v>
+        <v>7.652101314303845</v>
       </c>
       <c r="C360">
         <v>6.999999999999999e-05</v>
@@ -5594,7 +5594,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>7.316521625002759</v>
+        <v>7.316521625002762</v>
       </c>
       <c r="C366">
         <v>0.00011</v>
@@ -5605,7 +5605,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>7.282652749497522</v>
+        <v>7.282652749497525</v>
       </c>
       <c r="C367">
         <v>0.00011</v>
@@ -5627,7 +5627,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>7.13768496723208</v>
+        <v>7.137684967232151</v>
       </c>
       <c r="C369">
         <v>0.00014</v>
@@ -5660,7 +5660,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>6.660845725048719</v>
+        <v>6.660845725048716</v>
       </c>
       <c r="C372">
         <v>0.00025</v>
@@ -5671,7 +5671,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>6.392580427056328</v>
+        <v>6.392580427056322</v>
       </c>
       <c r="C373">
         <v>0.00036</v>
@@ -5737,7 +5737,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>5.531505186424464</v>
+        <v>5.531505186424462</v>
       </c>
       <c r="C379">
         <v>0.00112</v>
@@ -5748,7 +5748,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>5.531505186424464</v>
+        <v>5.531505186424462</v>
       </c>
       <c r="C380">
         <v>0.00112</v>
@@ -5770,7 +5770,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>5.346438752392571</v>
+        <v>5.34643875239258</v>
       </c>
       <c r="C382">
         <v>0.00143</v>
@@ -5858,7 +5858,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>4.483618740111873</v>
+        <v>4.483618740111869</v>
       </c>
       <c r="C390">
         <v>0.00447</v>
